--- a/Blood4Life/Sprint-1/Requisitos/Blood4Life - Requisitos-Backlog.xlsx
+++ b/Blood4Life/Sprint-1/Requisitos/Blood4Life - Requisitos-Backlog.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Braian Emo Braga\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danju\OneDrive\Área de Trabalho\BANDTEC\20201-3adsa-grupo8\Blood4Life\Sprint-1\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86F3ED12-DD07-4C6A-9232-1083FDDB7AEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2B9AD0-52D5-458E-BE68-15FD63F9E837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{877439CE-2986-4118-8806-57B2D1B2DD9C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{877439CE-2986-4118-8806-57B2D1B2DD9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="1" r:id="rId1"/>
     <sheet name="BackLog" sheetId="2" r:id="rId2"/>
     <sheet name="BackLog Da Aplicação" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="224">
   <si>
     <t>Ref./</t>
   </si>
@@ -487,9 +487,6 @@
     <t>2.1.1</t>
   </si>
   <si>
-    <t>Deverá fazer cadastro de usuários</t>
-  </si>
-  <si>
     <t>2.1.2</t>
   </si>
   <si>
@@ -562,10 +559,163 @@
     <t>A aplicação deverá ter um sistema de alertas.</t>
   </si>
   <si>
-    <t>2.6.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">A aplicação deverá ter um sistema de alertas quando o sangue tiver abaixo do esperado </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logo da empresa no canto superior esquerdo</t>
+  </si>
+  <si>
+    <t>Navbar(Sobre nós, Programas, Contatos, Gráfico)</t>
+  </si>
+  <si>
+    <t>Deverá seguir uma paleta de cores definida</t>
+  </si>
+  <si>
+    <t>Deverá ter uma explicação breve sobre nossos serviços.</t>
+  </si>
+  <si>
+    <t>Deverá ter a tela cadastro de usuários</t>
+  </si>
+  <si>
+    <t>Deverá ter dois campos para preenchimento(e-mail e senha)</t>
+  </si>
+  <si>
+    <t>Deverá ter a validação dos campos para acesso de usuário</t>
+  </si>
+  <si>
+    <t>O usuário deve preencher todos os campos(nome, data de nascimento, e-mail, CPF, senha, telefone)</t>
+  </si>
+  <si>
+    <t>O usuário deverá se identificar como admistradora do hospital, se for o caso.</t>
+  </si>
+  <si>
+    <t>Documentações</t>
+  </si>
+  <si>
+    <t>Deverá ter uma contextualização do negócio</t>
+  </si>
+  <si>
+    <t>Terá que conter dados estáticos que confirme a necessidade.</t>
+  </si>
+  <si>
+    <t>Deverá ter protopersonas</t>
+  </si>
+  <si>
+    <t>Deverá ter Desenho de Solução</t>
+  </si>
+  <si>
+    <t>O desenho deverá respeitar as paletas de cores definidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deverá ter uma jornada do usuário para os dois usuários (doador e adminstradora) </t>
+  </si>
+  <si>
+    <t>Banco de Dados</t>
+  </si>
+  <si>
+    <t>Conectar através do Azure</t>
+  </si>
+  <si>
+    <t>Dicionário de Dados</t>
+  </si>
+  <si>
+    <t>Conectar aplicação web com o Banco de Dados</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>Modelagem Lógica</t>
+  </si>
+  <si>
+    <t>Deverá ter Mapa de Empatia de cada protopersona.</t>
+  </si>
+  <si>
+    <t>Deverá ser feita uma pesquisa de campo para todas as personas definidas</t>
+  </si>
+  <si>
+    <t>Deverá ser criado protótipo de telas da aplicação web</t>
+  </si>
+  <si>
+    <t>A validação de Login e Logoff em Springboot usando Postman</t>
+  </si>
+  <si>
+    <t>Criar uma apresentação do projeto em Power Point.</t>
+  </si>
+  <si>
+    <t>Criar as entidades no banco do Azure</t>
+  </si>
+  <si>
+    <t>Deverá ter a arquitetura de dados da Aplicação</t>
+  </si>
+  <si>
+    <t>Login e Logoff também deverá ter ORM</t>
+  </si>
+  <si>
+    <t>Deverá ter um Padrão de projeto definido.</t>
+  </si>
+  <si>
+    <t>Deverá criar um documento de layout (Entrada e Saída) para carregamentos de dados</t>
+  </si>
+  <si>
+    <t>Deverá ter funcionalidades de Importação/Exportação (Header, Detail, Trailer)</t>
+  </si>
+  <si>
+    <t>O sistema deverá ter 2 CRUDS com Springboot e ORM</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t>2.1.7</t>
+  </si>
+  <si>
+    <t>2.1.8</t>
+  </si>
+  <si>
+    <t>2.7.1</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.2.1</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.4</t>
   </si>
 </sst>
 </file>
@@ -922,62 +1072,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,7 +1152,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1304,14 +1454,14 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="103.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="103.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1615,16 +1765,16 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C19" sqref="C19"/>
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
-      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="48.5703125" customWidth="1"/>
-    <col min="5" max="5" width="81.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="48.5546875" customWidth="1"/>
+    <col min="5" max="5" width="81.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1">
@@ -1634,676 +1784,720 @@
       <c r="B1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="46"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="37" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="38"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="15"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="36"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
+      <c r="F2" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="43"/>
+      <c r="H3" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="28" t="s">
+      <c r="G4" s="31"/>
+      <c r="H4" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="29"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30" t="s">
+      <c r="G5" s="43"/>
+      <c r="H5" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="30"/>
+      <c r="I5" s="43"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15"/>
       <c r="B6" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="28" t="s">
+      <c r="F6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30" t="s">
+      <c r="F7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30" t="s">
+      <c r="F8" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30" t="s">
+      <c r="F9" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30" t="s">
+      <c r="F10" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="30"/>
+      <c r="I10" s="43"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30" t="s">
+      <c r="F11" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I11" s="43"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30" t="s">
+      <c r="F12" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30" t="s">
+      <c r="G13" s="43"/>
+      <c r="H13" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="15">
         <v>2</v>
       </c>
       <c r="B14" s="15"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34" t="s">
+      <c r="G14" s="42"/>
+      <c r="H14" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="34"/>
-    </row>
-    <row r="15" spans="1:9" ht="30">
+      <c r="I14" s="42"/>
+    </row>
+    <row r="15" spans="1:9" ht="28.8">
       <c r="A15" s="15"/>
       <c r="B15" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30" t="s">
+      <c r="G15" s="43"/>
+      <c r="H15" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="30"/>
+      <c r="I15" s="43"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="15">
         <v>3</v>
       </c>
       <c r="B16" s="15"/>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="36"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34" t="s">
+      <c r="F16" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="34"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="15"/>
       <c r="B17" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="29"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30" t="s">
+      <c r="G17" s="43"/>
+      <c r="H17" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="30"/>
+      <c r="I17" s="43"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="29"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30" t="s">
+      <c r="G18" s="43"/>
+      <c r="H18" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="30"/>
+      <c r="I18" s="43"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="15"/>
       <c r="B19" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30" t="s">
+      <c r="G19" s="43"/>
+      <c r="H19" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="I19" s="30"/>
+      <c r="I19" s="43"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="15"/>
       <c r="B20" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="29"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="28" t="s">
+      <c r="G20" s="43"/>
+      <c r="H20" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="29"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="18"/>
       <c r="B21" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="43" t="s">
+      <c r="D21" s="37"/>
+      <c r="E21" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="39" t="s">
+      <c r="F21" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="40"/>
+      <c r="I21" s="37"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="15">
         <v>4</v>
       </c>
       <c r="B23" s="15"/>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="36"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="25"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="33"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="15"/>
       <c r="B24" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="29"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="F24" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="28" t="s">
+      <c r="F24" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="43"/>
+      <c r="H24" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="29"/>
+      <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="15">
         <v>5</v>
       </c>
       <c r="B25" s="15"/>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="36"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="35" t="s">
+      <c r="F25" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="42"/>
+      <c r="H25" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="36"/>
+      <c r="I25" s="33"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="15"/>
       <c r="B26" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="28" t="s">
+      <c r="F26" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="43"/>
+      <c r="H26" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="29"/>
+      <c r="I26" s="31"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="15">
         <v>6</v>
       </c>
       <c r="B27" s="15"/>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="36"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35" t="s">
+      <c r="F27" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="42"/>
+      <c r="H27" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="36"/>
+      <c r="I27" s="33"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="15"/>
       <c r="B28" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="29"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F28" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="28" t="s">
+      <c r="F28" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="43"/>
+      <c r="H28" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="29"/>
+      <c r="I28" s="31"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="15"/>
       <c r="B29" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="29"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="28" t="s">
+      <c r="G29" s="43"/>
+      <c r="H29" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I29" s="29"/>
+      <c r="I29" s="31"/>
     </row>
     <row r="30" spans="1:9" ht="20.25" customHeight="1">
       <c r="A30" s="15"/>
       <c r="B30" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="32"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="F30" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="31" t="s">
+      <c r="F30" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="46"/>
+      <c r="H30" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I30" s="32"/>
+      <c r="I30" s="35"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" customHeight="1">
       <c r="A31" s="16"/>
       <c r="B31" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="D31" s="32"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="F31" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="31" t="s">
+      <c r="F31" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="46"/>
+      <c r="H31" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="32"/>
+      <c r="I31" s="35"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="32"/>
+      <c r="D32" s="35"/>
       <c r="E32" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="31" t="s">
+      <c r="F32" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="46"/>
+      <c r="H32" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I32" s="32"/>
+      <c r="I32" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:G22"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="C17:D17"/>
@@ -2320,67 +2514,23 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:G22"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2388,23 +2538,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4917DAEF-DAF6-4CA8-A6A9-2FBE40F62A43}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" thickBot="1">
+    <row r="1" spans="1:6" ht="28.2" thickBot="1">
       <c r="A1" s="20" t="s">
         <v>47</v>
       </c>
@@ -2424,7 +2574,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -2433,12 +2583,10 @@
         <v>141</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75">
+    <row r="3" spans="1:6">
       <c r="A3" s="23"/>
       <c r="B3" s="23" t="s">
         <v>56</v>
@@ -2456,138 +2604,136 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="24">
-        <v>2</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24" t="s">
-        <v>146</v>
+    <row r="6" spans="1:6">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.4">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="7" t="s">
+    <row r="9" spans="1:6" ht="26.4">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
+    <row r="10" spans="1:6">
+      <c r="A10" s="24">
+        <v>2</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="24"/>
       <c r="B11" s="24" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>56</v>
@@ -2596,70 +2742,70 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75">
+    <row r="12" spans="1:6">
       <c r="A12" s="24"/>
       <c r="B12" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>159</v>
+        <v>146</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="25.5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="24"/>
       <c r="B13" s="24" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="24"/>
       <c r="B14" s="24" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="25.5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="24"/>
       <c r="B15" s="24" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>56</v>
@@ -2668,13 +2814,13 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="25.5">
+    <row r="16" spans="1:6">
       <c r="A16" s="24"/>
       <c r="B16" s="24" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>7</v>
@@ -2683,16 +2829,16 @@
         <v>56</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="26.4">
       <c r="A17" s="24"/>
       <c r="B17" s="24" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>11</v>
@@ -2704,13 +2850,13 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75">
+    <row r="18" spans="1:6" ht="26.4">
       <c r="A18" s="24"/>
       <c r="B18" s="24" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>7</v>
@@ -2722,21 +2868,585 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="25.5">
+    <row r="19" spans="1:6">
       <c r="A19" s="24"/>
       <c r="B19" s="24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="26.4">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="26.4">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="26.4">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="26.4">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="24">
+        <v>3</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="24"/>
+      <c r="B38" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="24"/>
+      <c r="B40" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="26.4">
+      <c r="A41" s="24"/>
+      <c r="B41" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="26.4">
+      <c r="A42" s="24"/>
+      <c r="B42" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="24"/>
+      <c r="B43" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="24"/>
+      <c r="B44" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="24"/>
+      <c r="B45" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="24">
+        <v>4</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="24"/>
+      <c r="B47" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="24"/>
+      <c r="B48" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="24"/>
+      <c r="B49" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="24"/>
+      <c r="B50" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="24"/>
+      <c r="B51" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2751,12 +3461,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2918,19 +3625,45 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BD8FF8-7BF6-40B9-90F6-F16DE9677F3D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9243BB37-D979-4D18-BCB9-4CF6AC944630}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB953BDC-3CD8-450C-B940-49075F91FF88}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB953BDC-3CD8-450C-B940-49075F91FF88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b123d2ef-f8f8-4b30-aa78-0212f6ddc4cc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9243BB37-D979-4D18-BCB9-4CF6AC944630}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BD8FF8-7BF6-40B9-90F6-F16DE9677F3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Blood4Life/Sprint-1/Requisitos/Blood4Life - Requisitos-Backlog.xlsx
+++ b/Blood4Life/Sprint-1/Requisitos/Blood4Life - Requisitos-Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danju\OneDrive\Área de Trabalho\BANDTEC\20201-3adsa-grupo8\Blood4Life\Sprint-1\Requisitos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f121773a5ae8ec2/Área de Trabalho/BANDTEC/20201-3adsa-grupo8/Blood4Life/Sprint-1/Requisitos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2B9AD0-52D5-458E-BE68-15FD63F9E837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{5E2B9AD0-52D5-458E-BE68-15FD63F9E837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6CAA2EF1-8855-4F4A-A3FB-FB33414AB2A1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{877439CE-2986-4118-8806-57B2D1B2DD9C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="226">
   <si>
     <t>Ref./</t>
   </si>
@@ -716,6 +716,12 @@
   </si>
   <si>
     <t>4.4</t>
+  </si>
+  <si>
+    <t>Deverá ter um diagrama de Caso de Uso</t>
+  </si>
+  <si>
+    <t>3.10</t>
   </si>
 </sst>
 </file>
@@ -1072,62 +1078,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1784,692 +1790,704 @@
       <c r="B1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="40" t="s">
+      <c r="G1" s="44"/>
+      <c r="H1" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="41"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="15"/>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42" t="s">
+      <c r="F2" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="42"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="43"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="30" t="s">
+      <c r="G4" s="29"/>
+      <c r="H4" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="31"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43" t="s">
+      <c r="G5" s="30"/>
+      <c r="H5" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="43"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15"/>
       <c r="B6" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="30" t="s">
+      <c r="F6" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43" t="s">
+      <c r="F7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="43"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43" t="s">
+      <c r="F8" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="43"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43" t="s">
+      <c r="F9" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="43"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="31"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43" t="s">
+      <c r="F10" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="43"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="31"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43" t="s">
+      <c r="F11" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="43"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="31"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43" t="s">
+      <c r="F12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="43"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="31"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43" t="s">
+      <c r="G13" s="30"/>
+      <c r="H13" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="43"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="15">
         <v>2</v>
       </c>
       <c r="B14" s="15"/>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42" t="s">
+      <c r="G14" s="34"/>
+      <c r="H14" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="42"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" ht="28.8">
       <c r="A15" s="15"/>
       <c r="B15" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43" t="s">
+      <c r="G15" s="30"/>
+      <c r="H15" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="43"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="15">
         <v>3</v>
       </c>
       <c r="B16" s="15"/>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="33"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42" t="s">
+      <c r="F16" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="42"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="15"/>
       <c r="B17" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="31"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43" t="s">
+      <c r="G17" s="30"/>
+      <c r="H17" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="43"/>
+      <c r="I17" s="30"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="31"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43" t="s">
+      <c r="G18" s="30"/>
+      <c r="H18" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="43"/>
+      <c r="I18" s="30"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="15"/>
       <c r="B19" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="31"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43" t="s">
+      <c r="G19" s="30"/>
+      <c r="H19" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="I19" s="43"/>
+      <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="15"/>
       <c r="B20" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="31"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="30" t="s">
+      <c r="G20" s="30"/>
+      <c r="H20" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="31"/>
+      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="18"/>
       <c r="B21" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="44" t="s">
+      <c r="D21" s="40"/>
+      <c r="E21" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="36" t="s">
+      <c r="F21" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="40"/>
+      <c r="H21" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="37"/>
+      <c r="I21" s="40"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="39"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="15">
         <v>4</v>
       </c>
       <c r="B23" s="15"/>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="33"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="25"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="36"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="15"/>
       <c r="B24" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="31"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="F24" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="30" t="s">
+      <c r="F24" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="31"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="15">
         <v>5</v>
       </c>
       <c r="B25" s="15"/>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="33"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="32" t="s">
+      <c r="F25" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="34"/>
+      <c r="H25" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="33"/>
+      <c r="I25" s="36"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="15"/>
       <c r="B26" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="31"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="43"/>
-      <c r="H26" s="30" t="s">
+      <c r="F26" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="31"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="15">
         <v>6</v>
       </c>
       <c r="B27" s="15"/>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="33"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="32" t="s">
+      <c r="F27" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="34"/>
+      <c r="H27" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="33"/>
+      <c r="I27" s="36"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="15"/>
       <c r="B28" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="31"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F28" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="43"/>
-      <c r="H28" s="30" t="s">
+      <c r="F28" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="31"/>
+      <c r="I28" s="29"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="15"/>
       <c r="B29" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="31"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="43"/>
-      <c r="H29" s="30" t="s">
+      <c r="G29" s="30"/>
+      <c r="H29" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="I29" s="31"/>
+      <c r="I29" s="29"/>
     </row>
     <row r="30" spans="1:9" ht="20.25" customHeight="1">
       <c r="A30" s="15"/>
       <c r="B30" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="35"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="F30" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="46"/>
-      <c r="H30" s="34" t="s">
+      <c r="F30" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="33"/>
+      <c r="H30" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="I30" s="35"/>
+      <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" customHeight="1">
       <c r="A31" s="16"/>
       <c r="B31" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="D31" s="35"/>
+      <c r="D31" s="32"/>
       <c r="E31" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="F31" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="46"/>
-      <c r="H31" s="34" t="s">
+      <c r="F31" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="33"/>
+      <c r="H31" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="35"/>
+      <c r="I31" s="32"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="35"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="46"/>
-      <c r="H32" s="34" t="s">
+      <c r="F32" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="33"/>
+      <c r="H32" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="I32" s="35"/>
+      <c r="I32" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:G22"/>
-    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="F4:G4"/>
@@ -2486,51 +2504,39 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:G22"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2538,10 +2544,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4917DAEF-DAF6-4CA8-A6A9-2FBE40F62A43}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="91" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3336,61 +3342,55 @@
         <v>219</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="24"/>
+      <c r="B46" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D46" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="7" t="s">
+      <c r="E46" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="24">
+    <row r="47" spans="1:6">
+      <c r="A47" s="24">
         <v>4</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="12" t="s">
+      <c r="B47" s="24"/>
+      <c r="C47" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="13"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="13"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="24"/>
       <c r="B48" s="24" t="s">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>6</v>
@@ -3399,28 +3399,28 @@
     <row r="49" spans="1:6">
       <c r="A49" s="24"/>
       <c r="B49" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>96</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="24"/>
       <c r="B50" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>11</v>
@@ -3435,18 +3435,36 @@
     <row r="51" spans="1:6">
       <c r="A51" s="24"/>
       <c r="B51" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="24"/>
+      <c r="B52" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D52" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E52" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F52" s="7" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3461,9 +3479,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3625,19 +3646,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9243BB37-D979-4D18-BCB9-4CF6AC944630}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BD8FF8-7BF6-40B9-90F6-F16DE9677F3D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3661,9 +3678,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BD8FF8-7BF6-40B9-90F6-F16DE9677F3D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9243BB37-D979-4D18-BCB9-4CF6AC944630}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Blood4Life/Sprint-1/Requisitos/Blood4Life - Requisitos-Backlog.xlsx
+++ b/Blood4Life/Sprint-1/Requisitos/Blood4Life - Requisitos-Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f121773a5ae8ec2/Área de Trabalho/BANDTEC/20201-3adsa-grupo8/Blood4Life/Sprint-1/Requisitos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f121773a5ae8ec2/Área de Trabalho/BANDTEC/Blood4Life/Blood4Life/Sprint-1/Requisitos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{5E2B9AD0-52D5-458E-BE68-15FD63F9E837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6CAA2EF1-8855-4F4A-A3FB-FB33414AB2A1}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{5E2B9AD0-52D5-458E-BE68-15FD63F9E837}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E18540C3-945F-4B50-8435-1E2F408CACC0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{877439CE-2986-4118-8806-57B2D1B2DD9C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="208">
   <si>
     <t>Ref./</t>
   </si>
@@ -613,21 +613,9 @@
     <t>Banco de Dados</t>
   </si>
   <si>
-    <t>Conectar através do Azure</t>
-  </si>
-  <si>
-    <t>Dicionário de Dados</t>
-  </si>
-  <si>
-    <t>Conectar aplicação web com o Banco de Dados</t>
-  </si>
-  <si>
     <t>2.7</t>
   </si>
   <si>
-    <t>Modelagem Lógica</t>
-  </si>
-  <si>
     <t>Deverá ter Mapa de Empatia de cada protopersona.</t>
   </si>
   <si>
@@ -646,33 +634,6 @@
     <t>Criar as entidades no banco do Azure</t>
   </si>
   <si>
-    <t>Deverá ter a arquitetura de dados da Aplicação</t>
-  </si>
-  <si>
-    <t>Login e Logoff também deverá ter ORM</t>
-  </si>
-  <si>
-    <t>Deverá ter um Padrão de projeto definido.</t>
-  </si>
-  <si>
-    <t>Deverá criar um documento de layout (Entrada e Saída) para carregamentos de dados</t>
-  </si>
-  <si>
-    <t>Deverá ter funcionalidades de Importação/Exportação (Header, Detail, Trailer)</t>
-  </si>
-  <si>
-    <t>O sistema deverá ter 2 CRUDS com Springboot e ORM</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
     <t>2.3.1</t>
   </si>
   <si>
@@ -700,22 +661,7 @@
     <t>3.7</t>
   </si>
   <si>
-    <t>3.8</t>
-  </si>
-  <si>
     <t>3.9</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>4.2.1</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>4.4</t>
   </si>
   <si>
     <t>Deverá ter um diagrama de Caso de Uso</t>
@@ -1078,62 +1024,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1790,676 +1736,720 @@
       <c r="B1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="46"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="43" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="44"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="15"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="36"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
+      <c r="F2" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="43"/>
+      <c r="H3" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="28" t="s">
+      <c r="G4" s="31"/>
+      <c r="H4" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="29"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30" t="s">
+      <c r="G5" s="43"/>
+      <c r="H5" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="30"/>
+      <c r="I5" s="43"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15"/>
       <c r="B6" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="28" t="s">
+      <c r="F6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30" t="s">
+      <c r="F7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30" t="s">
+      <c r="F8" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30" t="s">
+      <c r="F9" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30" t="s">
+      <c r="F10" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="30"/>
+      <c r="I10" s="43"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30" t="s">
+      <c r="F11" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I11" s="43"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30" t="s">
+      <c r="F12" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30" t="s">
+      <c r="G13" s="43"/>
+      <c r="H13" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="15">
         <v>2</v>
       </c>
       <c r="B14" s="15"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34" t="s">
+      <c r="G14" s="42"/>
+      <c r="H14" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="34"/>
+      <c r="I14" s="42"/>
     </row>
     <row r="15" spans="1:9" ht="28.8">
       <c r="A15" s="15"/>
       <c r="B15" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30" t="s">
+      <c r="G15" s="43"/>
+      <c r="H15" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="30"/>
+      <c r="I15" s="43"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="15">
         <v>3</v>
       </c>
       <c r="B16" s="15"/>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="36"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34" t="s">
+      <c r="F16" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="34"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="15"/>
       <c r="B17" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="29"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30" t="s">
+      <c r="G17" s="43"/>
+      <c r="H17" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="30"/>
+      <c r="I17" s="43"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="29"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30" t="s">
+      <c r="G18" s="43"/>
+      <c r="H18" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="30"/>
+      <c r="I18" s="43"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="15"/>
       <c r="B19" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30" t="s">
+      <c r="G19" s="43"/>
+      <c r="H19" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="I19" s="30"/>
+      <c r="I19" s="43"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="15"/>
       <c r="B20" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="29"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="28" t="s">
+      <c r="G20" s="43"/>
+      <c r="H20" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="29"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="18"/>
       <c r="B21" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="37" t="s">
+      <c r="D21" s="37"/>
+      <c r="E21" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="39" t="s">
+      <c r="F21" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="40"/>
+      <c r="I21" s="37"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="15">
         <v>4</v>
       </c>
       <c r="B23" s="15"/>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="36"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="25"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="33"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="15"/>
       <c r="B24" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="29"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="F24" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="28" t="s">
+      <c r="F24" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="43"/>
+      <c r="H24" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="29"/>
+      <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="15">
         <v>5</v>
       </c>
       <c r="B25" s="15"/>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="36"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="35" t="s">
+      <c r="F25" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="42"/>
+      <c r="H25" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="36"/>
+      <c r="I25" s="33"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="15"/>
       <c r="B26" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="28" t="s">
+      <c r="F26" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="43"/>
+      <c r="H26" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="29"/>
+      <c r="I26" s="31"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="15">
         <v>6</v>
       </c>
       <c r="B27" s="15"/>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="36"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35" t="s">
+      <c r="F27" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="42"/>
+      <c r="H27" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="36"/>
+      <c r="I27" s="33"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="15"/>
       <c r="B28" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="29"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F28" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="28" t="s">
+      <c r="F28" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="43"/>
+      <c r="H28" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="29"/>
+      <c r="I28" s="31"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="15"/>
       <c r="B29" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="29"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="28" t="s">
+      <c r="G29" s="43"/>
+      <c r="H29" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I29" s="29"/>
+      <c r="I29" s="31"/>
     </row>
     <row r="30" spans="1:9" ht="20.25" customHeight="1">
       <c r="A30" s="15"/>
       <c r="B30" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="32"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="F30" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="31" t="s">
+      <c r="F30" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="46"/>
+      <c r="H30" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I30" s="32"/>
+      <c r="I30" s="35"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" customHeight="1">
       <c r="A31" s="16"/>
       <c r="B31" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="D31" s="32"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="F31" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="31" t="s">
+      <c r="F31" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="46"/>
+      <c r="H31" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="32"/>
+      <c r="I31" s="35"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="32"/>
+      <c r="D32" s="35"/>
       <c r="E32" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="31" t="s">
+      <c r="F32" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="46"/>
+      <c r="H32" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I32" s="32"/>
+      <c r="I32" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:G22"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="C17:D17"/>
@@ -2476,67 +2466,23 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:G22"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2544,10 +2490,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4917DAEF-DAF6-4CA8-A6A9-2FBE40F62A43}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="91" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2616,7 +2562,7 @@
         <v>62</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>11</v>
@@ -2629,132 +2575,132 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="A5" s="24">
+        <v>2</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23" t="s">
-        <v>86</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23" t="s">
-        <v>206</v>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24" t="s">
+        <v>146</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.4">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23" t="s">
-        <v>207</v>
+    <row r="8" spans="1:6">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24" t="s">
+        <v>147</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="26.4">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23" t="s">
-        <v>208</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24" t="s">
+        <v>149</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="24">
-        <v>2</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="24"/>
       <c r="B11" s="24" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.4">
       <c r="A12" s="24"/>
       <c r="B12" s="24" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>11</v>
@@ -2766,16 +2712,16 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="26.4">
       <c r="A13" s="24"/>
       <c r="B13" s="24" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>56</v>
@@ -2787,31 +2733,31 @@
     <row r="14" spans="1:6">
       <c r="A14" s="24"/>
       <c r="B14" s="24" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="24"/>
       <c r="B15" s="24" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>56</v>
@@ -2823,10 +2769,10 @@
     <row r="16" spans="1:6">
       <c r="A16" s="24"/>
       <c r="B16" s="24" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>7</v>
@@ -2838,13 +2784,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="26.4">
+    <row r="17" spans="1:6">
       <c r="A17" s="24"/>
       <c r="B17" s="24" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>11</v>
@@ -2856,16 +2802,16 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="26.4">
+    <row r="18" spans="1:6">
       <c r="A18" s="24"/>
       <c r="B18" s="24" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>56</v>
@@ -2877,31 +2823,31 @@
     <row r="19" spans="1:6">
       <c r="A19" s="24"/>
       <c r="B19" s="24" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="24"/>
       <c r="B20" s="24" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>56</v>
@@ -2913,10 +2859,10 @@
     <row r="21" spans="1:6">
       <c r="A21" s="24"/>
       <c r="B21" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>7</v>
@@ -2928,52 +2874,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="26.4">
       <c r="A22" s="24"/>
       <c r="B22" s="24" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="24"/>
       <c r="B23" s="24" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="26.4">
       <c r="A24" s="24"/>
       <c r="B24" s="24" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>56</v>
@@ -2982,16 +2928,16 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="26.4">
       <c r="A25" s="24"/>
       <c r="B25" s="24" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>56</v>
@@ -3003,28 +2949,28 @@
     <row r="26" spans="1:6">
       <c r="A26" s="24"/>
       <c r="B26" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>158</v>
+        <v>169</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="26.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="24"/>
       <c r="B27" s="24" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>7</v>
@@ -3033,55 +2979,49 @@
         <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="26.4">
       <c r="A28" s="24"/>
       <c r="B28" s="24" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="26.4">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="26.4">
+    <row r="29" spans="1:6">
+      <c r="A29" s="24">
+        <v>3</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="24"/>
       <c r="B30" s="24" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>56</v>
@@ -3093,13 +3033,13 @@
     <row r="31" spans="1:6">
       <c r="A31" s="24"/>
       <c r="B31" s="24" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>56</v>
@@ -3111,10 +3051,10 @@
     <row r="32" spans="1:6">
       <c r="A32" s="24"/>
       <c r="B32" s="24" t="s">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>7</v>
@@ -3126,13 +3066,13 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="26.4">
+    <row r="33" spans="1:6">
       <c r="A33" s="24"/>
       <c r="B33" s="24" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>11</v>
@@ -3145,24 +3085,30 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="24">
-        <v>3</v>
-      </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="13"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="24"/>
       <c r="B35" s="24" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>11</v>
@@ -3174,16 +3120,16 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="26.4">
       <c r="A36" s="24"/>
       <c r="B36" s="24" t="s">
-        <v>214</v>
+        <v>109</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>56</v>
@@ -3192,13 +3138,13 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="26.4">
       <c r="A37" s="24"/>
       <c r="B37" s="24" t="s">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>7</v>
@@ -3207,19 +3153,19 @@
         <v>56</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="24"/>
       <c r="B38" s="24" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>56</v>
@@ -3231,241 +3177,63 @@
     <row r="39" spans="1:6">
       <c r="A39" s="24"/>
       <c r="B39" s="24" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D39" s="7"/>
       <c r="E39" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>143</v>
-      </c>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="24"/>
       <c r="B40" s="24" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>194</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="26.4">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="26.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="24">
+        <v>4</v>
+      </c>
+      <c r="B41" s="24"/>
+      <c r="C41" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="24"/>
       <c r="B42" s="24" t="s">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>195</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="24">
-        <v>4</v>
-      </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="13"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3479,12 +3247,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3646,15 +3411,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BD8FF8-7BF6-40B9-90F6-F16DE9677F3D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9243BB37-D979-4D18-BCB9-4CF6AC944630}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3678,10 +3447,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9243BB37-D979-4D18-BCB9-4CF6AC944630}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BD8FF8-7BF6-40B9-90F6-F16DE9677F3D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>